--- a/SY_死神のお仕事.xlsx
+++ b/SY_死神のお仕事.xlsx
@@ -91,76 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ちょっと位の高い聖職者。
-HPは６０で主人公に向かって
-攻撃をしてくる。接触ダメージと
-攻撃されたダメージは同じ値。
-普通の聖職者と同じように、倒すと
-１回だけ魂を落とす。
-移動速度は主人公と同じくらい。</t>
-    <rPh sb="4" eb="5">
-      <t>クライ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>セイショクシャ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>セイショクシャ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>タマシイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="87" eb="91">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>聖職者。
 体力は４０で攻撃はしてこない。
 倒した際に、１回だけ魂を落とす。
@@ -215,6 +145,63 @@
     </rPh>
     <rPh sb="92" eb="93">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと位の高い聖職者。
+HPは６０で主人公に
+向かって攻撃をしてくる。
+普通の聖職者と同じように、倒すと
+１回だけ魂を落とす。
+移動速度は主人公と同じくらい。</t>
+    <rPh sb="4" eb="5">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,12 +848,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -874,19 +861,19 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -940,7 +927,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1014,7 +1001,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
